--- a/CI_Biases_EG_SDANDMEAN.xlsx
+++ b/CI_Biases_EG_SDANDMEAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oefel\Documents\GitHub\BIASpects-bias-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxx\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4AC2EA-FDE5-4301-88DC-CEC093266294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D874F7-55A1-4F6C-8107-BB59F9DF1001}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CI_Biases_EG_SDANDMEAN" sheetId="1" r:id="rId1"/>
@@ -723,29 +723,446 @@
                 <c:f>CI_Biases_EG_SDANDMEAN!$F$2:$F$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="147"/>
                   <c:pt idx="0">
+                    <c:v>1.9E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.7000000000000079E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.5000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.600000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.5000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.1999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.1000000000000194E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.6000000000000008E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4.1000000000000012E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.3999999999999933E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2999999999999991E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.0999999999999986E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.5000000000000022E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.0999999999999986E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.5000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.8000000000000108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2.6999999999999941E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2.7999999999999969E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>3.8000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>4.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.4000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2.7999999999999969E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>3.9999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>3.7999999999999909E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2.6999999999999802E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>3.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>3.7999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>3.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.5000000000000022E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>3.9999999999999966E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>3.7999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>3.4000000000000141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>3.1999999999999945E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>3.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>5.1000000000000073E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>4.699999999999982E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>5.1999999999999963E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>5.0000000000000044E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.4999999999999971E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.0999999999999986E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>5.000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.2000000000000023E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>4.7000000000000028E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>5.000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.8000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.4999999999999988E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2.9000000000000137E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>4.7000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>4.3000000000000052E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2.9999999999999749E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>4.8999999999999946E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>4.6000000000000069E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.7000000000000028E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2.9999999999999888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>4.3999999999999873E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.7000000000000097E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.1999999999999954E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
                     <c:v>2.5000000000000001E-3</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="111">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>9.3000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1.1099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
                     <c:v>9.099999999999997E-3</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="115">
+                    <c:v>5.6999999999999967E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>8.3999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>9.5000000000000015E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>8.5999999999999965E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
                     <c:v>9.1000000000000039E-3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="120">
+                    <c:v>5.5000000000000049E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>7.6999999999999985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>9.6000000000000009E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>8.7000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9.3999999999999986E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
                     <c:v>6.1000000000000013E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="126">
+                    <c:v>5.2999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>8.5000000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>9.4000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>8.3999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>9.0999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
                     <c:v>6.1000000000000013E-3</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="132">
+                    <c:v>5.2000000000000102E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>9.0000000000000045E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>9.5999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>8.2000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>8.6999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
                     <c:v>6.8000000000000005E-3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="138">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>9.099999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>8.10000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>9.1000000000000039E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
                     <c:v>6.5000000000000006E-3</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="143">
+                    <c:v>4.6000000000000069E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>7.5000000000000067E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>9.6999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
                     <c:v>7.1000000000000091E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -756,29 +1173,446 @@
                 <c:f>CI_Biases_EG_SDANDMEAN!$B$2:$B$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="147"/>
                   <c:pt idx="0">
+                    <c:v>1.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1999999999999945E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1000000000000194E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.6999999999999941E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.4999999999999962E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1000000000000194E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.3000000000000043E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.4999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.1999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.3000000000000113E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.4999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2000000000000015E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.5000000000000022E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.1000000000000055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.3999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.6999999999999941E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2.9000000000000137E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>1.9E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.6000000000000199E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2.7999999999999969E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.4999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.1999999999999954E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2.7000000000000079E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.4999999999999962E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>3.7999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>4.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2.7999999999999969E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>3.8000000000000117E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2.7999999999999969E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>3.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>3.7999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.5999999999999912E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>4.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>3.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>3.4999999999999754E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>3.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>5.0999999999999934E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>4.6000000000000207E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>3.1999999999999945E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>4.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>5.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>5.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>4.3000000000000052E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.2000000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>4.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>4.599999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>5.000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.8000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2.8999999999999859E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>4.1999999999999954E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2.9000000000000137E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>4.8000000000000057E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.6999999999999958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>4.400000000000015E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.599999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.0999999999999925E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
                     <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="111">
+                    <c:v>4.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>9.2999999999999888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1.1099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
                     <c:v>9.000000000000008E-3</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="115">
+                    <c:v>5.6999999999999967E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>8.3999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>9.3999999999999986E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>8.6999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
                     <c:v>9.0000000000000011E-3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="120">
+                    <c:v>5.4999999999999771E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>7.6000000000000026E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>9.5999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>8.6999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9.3999999999999986E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
                     <c:v>6.1000000000000013E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="126">
+                    <c:v>5.3999999999999881E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>8.3999999999999977E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>9.4000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>8.3000000000000018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>9.0000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
                     <c:v>6.1999999999999972E-3</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="132">
+                    <c:v>5.2000000000000102E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>8.8999999999999982E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>9.6000000000000009E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>8.3000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>8.6999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
                     <c:v>6.8000000000000005E-3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="138">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>9.099999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>8.199999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>9.099999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
                     <c:v>6.4999999999999997E-3</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="143">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>7.5999999999999956E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>9.7000000000000142E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
                     <c:v>7.1999999999999981E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -800,29 +1634,446 @@
               <c:f>CI_Biases_EG_SDANDMEAN!$D$2:$D$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1399999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.9200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.14069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.15440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.5199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1552</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.6199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.6199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1356</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1391</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.8599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.1699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.65E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.1406</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5.0799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.1547</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6.4299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.5199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.15529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.5499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.5699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.3299999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.8800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1502</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.1300000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.7199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.13950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.1507</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-8.9200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.8800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.4400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.1399</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-4.8599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-7.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-5.0900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.1527</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-6.1600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-6.4299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.15190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.4299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-4.7800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.13469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.8800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.2899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.4499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.1517</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.13669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>-8.0000000000000004E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="111">
+                  <c:v>-1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.11559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.15429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>0.1535</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="115">
+                  <c:v>-8.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.6899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.5500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>4.2599999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="120">
+                  <c:v>-0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-4.2099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>-4.9099999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="126">
+                  <c:v>-0.14810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-8.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>-6.3500000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="132">
+                  <c:v>-0.1454</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>-4.6699999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="138">
+                  <c:v>-0.12959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.6099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.4699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>-4.0000000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="143">
+                  <c:v>-8.3400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.15229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.14560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>0.1074</c:v>
                 </c:pt>
               </c:numCache>
@@ -857,29 +2108,446 @@
                 <c:f>CI_Biases_EG_SDANDMEAN!$L$2:$L$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="147"/>
                   <c:pt idx="0">
+                    <c:v>1.9000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3000000000000251E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1999999999999806E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1000000000000194E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.2000000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.8999999999999937E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2000000000000015E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.600000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.4000000000000141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2.0999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.0999999999999925E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>4.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.4000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3.9999999999999966E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4.1999999999999989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3.7999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2.9999999999999749E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>4.1999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>3.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>3.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.5999999999999912E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>3.6999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>3.9000000000000146E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>3.6000000000000199E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>3.1999999999999945E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>1.9E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2.9999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>5.0000000000000044E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>5.0000000000000044E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>4.9000000000000016E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>4.9999999999999906E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>5.0999999999999934E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>4.9999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>5.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>4.6999999999999958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>5.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>5.3999999999999951E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>4.7000000000000097E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>4.599999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
                     <c:v>2.5000000000000001E-3</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="111">
+                    <c:v>4.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>9.1000000000000109E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1.1200000000000015E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
                     <c:v>1.0500000000000009E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="115">
+                    <c:v>5.6000000000000077E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>8.3000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>9.099999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>9.1000000000000109E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
                     <c:v>9.7999999999999893E-3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="120">
+                    <c:v>6.0000000000000053E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>7.8999999999999973E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>8.8999999999999982E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
                     <c:v>7.1999999999999981E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="126">
+                    <c:v>6.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>8.3999999999999977E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>7.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>7.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
                     <c:v>7.4000000000000038E-3</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="132">
+                    <c:v>6.1999999999999972E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>9.6000000000000009E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>9.9999999999999985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>7.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
                     <c:v>7.0999999999999952E-3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="138">
+                    <c:v>5.400000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>1.1200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>8.3000000000000018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>9.0000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
                     <c:v>6.3999999999999994E-3</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="143">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>9.6999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>1.1099999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
                     <c:v>7.6000000000000095E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -890,29 +2558,446 @@
                 <c:f>CI_Biases_EG_SDANDMEAN!$H$2:$H$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="147"/>
                   <c:pt idx="0">
+                    <c:v>1.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1000000000000055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1999999999999806E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.1999999999999989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.4999999999999754E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.8999999999999972E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.600000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.1000000000000194E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.3999999999999985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2000000000000015E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.6999999999999802E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2.9999999999999957E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.3999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.6999999999999811E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.3999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.1999999999999806E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>4.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>3.7999999999999909E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2.9000000000000137E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>4.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>3.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>3.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.7000000000000079E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>3.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>3.1000000000000055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>3.0999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>4.9000000000000016E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>4.8999999999999877E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>4.9000000000000016E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>5.2000000000000032E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.7000000000000028E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>5.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>5.2999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>4.2000000000000023E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>3.3999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>5.2999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>4.6999999999999958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>4.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>3.1000000000000055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>4.599999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.500000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
                     <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="111">
+                    <c:v>4.4000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>9.099999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1.1300000000000004E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
                     <c:v>1.0399999999999993E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="115">
+                    <c:v>5.6999999999999967E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>8.3999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>9.1000000000000039E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>9.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
                     <c:v>9.7000000000000003E-3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="120">
+                    <c:v>6.0999999999999943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>7.8000000000000014E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>9.1000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>8.9000000000000017E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
                     <c:v>7.3000000000000009E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="126">
+                    <c:v>6.399999999999989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>8.3999999999999977E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>1.01E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>7.4999999999999989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>7.6999999999999985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
                     <c:v>7.4000000000000038E-3</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="132">
+                    <c:v>6.3000000000000139E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>9.7000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>1.0000000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>7.2000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
                     <c:v>7.1000000000000021E-3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="138">
+                    <c:v>5.400000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>1.1200000000000002E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>8.3000000000000018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>9.099999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
                     <c:v>6.4000000000000003E-3</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="143">
+                    <c:v>4.8999999999999877E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>9.8000000000000032E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>1.1200000000000015E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
                     <c:v>7.6999999999999985E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -934,29 +3019,446 @@
               <c:f>CI_Biases_EG_SDANDMEAN!$J$2:$J$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1800000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.9899999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.0200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.0500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.15160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.5199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.15409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.8099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.5499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.13550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.0300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.4100000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1545</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.9200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.3600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.13780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.9200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.14610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6.0400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-6.1899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.14779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.1328</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.5699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.9499999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.15409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.2700000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.1477</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.1648</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-8.7300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.0100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.13239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-4.6899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.13730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-5.4899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-6.1199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.4099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-4.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.12570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.8799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.8599999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-8.6099999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.1648</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.14180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.1007</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>-8.9999999999999998E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="111">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.12189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.19059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>0.21279999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="115">
+                  <c:v>-8.2100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.3900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.2199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>7.8200000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="120">
+                  <c:v>-0.1212</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-4.36E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>-2.1999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="126">
+                  <c:v>-0.1222</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-4.7199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>-5.5300000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="132">
+                  <c:v>-0.12239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.34E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>-4.6399999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="138">
+                  <c:v>-0.1167</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.43E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.1800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.7699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>-2.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="143">
+                  <c:v>-8.1100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.1968</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.17330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>0.1201</c:v>
                 </c:pt>
               </c:numCache>
@@ -991,29 +3493,446 @@
                 <c:f>CI_Biases_EG_SDANDMEAN!$R$2:$R$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="147"/>
                   <c:pt idx="0">
+                    <c:v>1.8000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1999999999999806E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.0999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.3999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.5000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.1000000000000012E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.4000000000000141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.9999999999999966E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.9000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.4999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.2000000000000015E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.7999999999999969E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.600000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2.8000000000000108E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3.1000000000000055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.0999999999999925E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.3999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>4.2000000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>4.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.2000000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>4.1000000000000064E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4.1000000000000012E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>3.9999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>3.3999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>3.899999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.7000000000000079E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>4.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>3.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2.9999999999999888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>4.2000000000000093E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>3.3999999999999864E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>1.9E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>3.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>5.1999999999999963E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>5.0000000000000044E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>4.599999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>4.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>4.6999999999999958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>5.5999999999999939E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>3.9999999999999897E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>5.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>4.9999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.400000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>4.1999999999999954E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>5.499999999999991E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>4.7000000000000097E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.4999999999999971E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>4.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>3.1000000000000055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>5.1999999999999824E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.1999999999999954E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
                     <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="111">
+                    <c:v>4.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>9.199999999999986E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1.1899999999999994E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
                     <c:v>1.2800000000000034E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="115">
+                    <c:v>5.400000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>8.4000000000000012E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>9.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>9.7000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
                     <c:v>1.0000000000000009E-2</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="120">
+                    <c:v>6.1999999999999972E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>7.8999999999999973E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>9.4999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>9.0000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>8.8000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
                     <c:v>7.1999999999999998E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="126">
+                    <c:v>6.4000000000000029E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>8.100000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>9.7999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>8.3000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>7.6999999999999985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
                     <c:v>6.9999999999999993E-3</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="132">
+                    <c:v>5.7999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>9.4999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>1.0099999999999998E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>7.1999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>8.3999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
                     <c:v>7.0999999999999952E-3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="138">
+                    <c:v>5.5000000000000049E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>9.8000000000000032E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>8.6999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>8.5999999999999965E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
                     <c:v>6.1999999999999998E-3</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="143">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>1.3100000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>1.0800000000000004E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
                     <c:v>7.1999999999999842E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -1024,29 +3943,446 @@
                 <c:f>CI_Biases_EG_SDANDMEAN!$N$2:$N$148</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="8"/>
+                  <c:ptCount val="147"/>
                   <c:pt idx="0">
+                    <c:v>1.9E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1999999999999945E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.1999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.699999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.5000000000000031E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.6000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.1999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.4999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.9999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.8000000000000013E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.600000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>4.0000000000000036E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.9000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.4999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.1999999999999945E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2.7999999999999969E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2.9999999999999957E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.4999999999999962E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3.599999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.1999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.9999999999999888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>3.5999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>3.4000000000000141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3.7000000000000088E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>3.6000000000000199E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>3.6999999999999811E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>3.0999999999999917E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>3.8999999999999937E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>4.1000000000000064E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>3.4000000000000141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>4.2000000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>4.1999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>3.2000000000000084E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4.1999999999999989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>3.8000000000000048E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>4.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>4.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>3.9000000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>3.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2.5999999999999912E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>3.7000000000000019E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>4.0999999999999925E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>3.7999999999999978E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>3.6999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>3.1000000000000055E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>4.2000000000000093E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>3.4000000000000141E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>3.4000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>3.0999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>5.1999999999999963E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>5.0000000000000044E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>4.7000000000000097E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>3.2999999999999974E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>4.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>5.6000000000000077E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>3.9000000000000146E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>4.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>4.8999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>5.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>3.6000000000000199E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>4.9999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>3.6999999999999811E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>5.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>4.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>4.4000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>4.2000000000000023E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>3.0000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>5.5000000000000049E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>4.6999999999999958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>4.4000000000000011E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>4.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2.9999999999999888E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>5.2000000000000102E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>4.2999999999999983E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
                     <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="111">
+                    <c:v>4.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>9.2000000000000137E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>1.1800000000000005E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
                     <c:v>1.2899999999999995E-2</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="115">
+                    <c:v>5.400000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>8.3000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>9.3000000000000027E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>9.7000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
                     <c:v>9.8999999999999921E-3</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="120">
+                    <c:v>6.1000000000000082E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>9.4999999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>8.6999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
                     <c:v>7.0999999999999987E-3</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="126">
+                    <c:v>6.399999999999989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>9.7000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>8.3000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>7.8000000000000014E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
                     <c:v>6.9999999999999993E-3</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="132">
+                    <c:v>5.6999999999999967E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>9.5999999999999992E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>7.1999999999999989E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>8.3000000000000018E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
                     <c:v>6.9999999999999993E-3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="138">
+                    <c:v>5.400000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>9.8999999999999921E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>8.6000000000000104E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>8.6999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
                     <c:v>6.1000000000000004E-3</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="143">
+                    <c:v>4.7999999999999987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>1.3100000000000001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>1.0699999999999987E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
                     <c:v>7.1000000000000091E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -1068,29 +4404,446 @@
               <c:f>CI_Biases_EG_SDANDMEAN!$P$2:$P$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="147"/>
                 <c:pt idx="0">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.08E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.36E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.9599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.1699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.14610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.4299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.5900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.1323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.0300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.14319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.6100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-8.7400000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.1499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.13189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.58E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.2000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.13730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5.6800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.6799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.1361</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.1699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.52E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.4499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.12640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1527</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.1047</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.15620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.1769</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-8.6599999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.6200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.6200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.1268</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-4.4499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.12859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-4.9099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.5299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-3.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.3899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5.5399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.12470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-4.5699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.4899999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.87E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.17180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.1515</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.1051</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>-1.1999999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="111">
+                  <c:v>-8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.12590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.21210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>0.25469999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="115">
+                  <c:v>-8.3400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.67E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.7400000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>9.6199999999999994E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="120">
+                  <c:v>-0.1198</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-4.1099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>-1.44E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="126">
+                  <c:v>-0.1202</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-4.36E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>-5.2999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="132">
+                  <c:v>-0.1169</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-8.3999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>-4.4499999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="138">
+                  <c:v>-0.1158</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.1017</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.9100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.9200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
                   <c:v>-2.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="143">
+                  <c:v>-8.0299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.2356</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.1946</c:v>
+                </c:pt>
+                <c:pt idx="146">
                   <c:v>0.1237</c:v>
                 </c:pt>
               </c:numCache>
@@ -1862,27 +5615,19 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:Z148" totalsRowShown="0">
-  <autoFilter ref="A1:Z148" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="19">
-      <filters>
-        <filter val="0,95"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="24">
-      <filters>
-        <filter val="0,45"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z148" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:Z148">
+    <sortCondition ref="A1:A148"/>
+  </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Exp. Group"/>
-    <tableColumn id="22" xr3:uid="{12148270-EFCE-41A9-AE58-A77353302429}" name="Negative Error Bias" dataDxfId="4">
+    <tableColumn id="22" xr3:uid="{12148270-EFCE-41A9-AE58-A77353302429}" name="Negative Error Bias" dataDxfId="5">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Mean Bias]]-Tabelle1[[#This Row],[Lower Bound Bias]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lower Bound Bias"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mean Bias"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Upper Bound Bias"/>
-    <tableColumn id="21" xr3:uid="{04381DBA-0BFF-4514-8855-F61C57939AB3}" name="Positive Error Bias" dataDxfId="5">
+    <tableColumn id="21" xr3:uid="{04381DBA-0BFF-4514-8855-F61C57939AB3}" name="Positive Error Bias" dataDxfId="4">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Upper Bound Bias]]-Tabelle1[[#This Row],[Mean Bias]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SD Bias"/>
@@ -1896,13 +5641,13 @@
       <calculatedColumnFormula>Tabelle1[[#This Row],[Upper Bound NO SEX]]-Tabelle1[[#This Row],[Mean NO SEX]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SD NO SEX"/>
-    <tableColumn id="25" xr3:uid="{6D5F83CA-3B41-4D85-96F7-E70B5DCAAEAF}" name="Negative Error NO SEX INF" dataDxfId="0">
+    <tableColumn id="25" xr3:uid="{6D5F83CA-3B41-4D85-96F7-E70B5DCAAEAF}" name="Negative Error NO SEX INF" dataDxfId="1">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Mean NO SEX INF]]-Tabelle1[[#This Row],[Lower Bound NO SEX INF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Lower Bound NO SEX INF"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Mean NO SEX INF"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Upper Bound NO SEX INF"/>
-    <tableColumn id="26" xr3:uid="{65601B7E-B9DF-49C9-AFF7-9549657C816D}" name="Positive Error NO SEX INF" dataDxfId="1">
+    <tableColumn id="26" xr3:uid="{65601B7E-B9DF-49C9-AFF7-9549657C816D}" name="Positive Error NO SEX INF" dataDxfId="0">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Upper Bound NO SEX INF]]-Tabelle1[[#This Row],[Mean NO SEX INF]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SD NO SEX INF"/>
@@ -2217,33 +5962,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.86328125" customWidth="1"/>
-    <col min="3" max="3" width="18.73046875" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" customWidth="1"/>
-    <col min="5" max="6" width="18.86328125" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" customWidth="1"/>
-    <col min="11" max="12" width="21.73046875" customWidth="1"/>
-    <col min="13" max="14" width="12.265625" customWidth="1"/>
+    <col min="1" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="6" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" customWidth="1"/>
-    <col min="17" max="18" width="25.1328125" customWidth="1"/>
-    <col min="19" max="19" width="15.73046875" customWidth="1"/>
-    <col min="20" max="20" width="12.265625" customWidth="1"/>
-    <col min="21" max="21" width="11.86328125" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" customWidth="1"/>
-    <col min="23" max="23" width="17.1328125" customWidth="1"/>
-    <col min="25" max="25" width="13.1328125" customWidth="1"/>
-    <col min="26" max="26" width="15.3984375" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="18" width="25.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +6068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2394,22 +6139,22 @@
         <v>0.05</v>
       </c>
       <c r="V2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W2">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0.45</v>
       </c>
       <c r="Y2">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2480,22 +6225,22 @@
         <v>0.05</v>
       </c>
       <c r="V3">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W3">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X3">
         <v>0.45</v>
       </c>
       <c r="Y3">
+        <v>0.3</v>
+      </c>
+      <c r="Z3">
         <v>0.15</v>
       </c>
-      <c r="Z3">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2566,22 +6311,22 @@
         <v>0.05</v>
       </c>
       <c r="V4">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W4">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X4">
         <v>0.45</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z4">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2649,25 +6394,25 @@
         <v>0.5</v>
       </c>
       <c r="U5">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="V5">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W5">
-        <v>0.15</v>
+        <v>-0.45</v>
       </c>
       <c r="X5">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>0.45</v>
       </c>
-      <c r="Z5">
-        <v>-0.15</v>
-      </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2738,22 +6483,22 @@
         <v>0.2</v>
       </c>
       <c r="V6">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X6">
         <v>0.3</v>
       </c>
       <c r="Y6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2824,22 +6569,22 @@
         <v>0.2</v>
       </c>
       <c r="V7">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W7">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0.3</v>
       </c>
       <c r="Y7">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2910,22 +6655,22 @@
         <v>0.2</v>
       </c>
       <c r="V8">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W8">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X8">
         <v>0.3</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z8">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2996,22 +6741,22 @@
         <v>0.2</v>
       </c>
       <c r="V9">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W9">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X9">
         <v>0.3</v>
       </c>
       <c r="Y9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3079,25 +6824,25 @@
         <v>0.5</v>
       </c>
       <c r="U10">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="V10">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="W10">
+        <v>-0.45</v>
+      </c>
+      <c r="X10">
         <v>0.3</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.15</v>
       </c>
-      <c r="Y10">
-        <v>0.45</v>
-      </c>
       <c r="Z10">
-        <v>-0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3168,22 +6913,22 @@
         <v>0.35</v>
       </c>
       <c r="V11">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W11">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X11">
         <v>0.15</v>
       </c>
       <c r="Y11">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z11">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3254,22 +6999,22 @@
         <v>0.35</v>
       </c>
       <c r="V12">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X12">
         <v>0.15</v>
       </c>
       <c r="Y12">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3340,22 +7085,22 @@
         <v>0.35</v>
       </c>
       <c r="V13">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W13">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>0.15</v>
       </c>
       <c r="Y13">
+        <v>0.15</v>
+      </c>
+      <c r="Z13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3426,22 +7171,22 @@
         <v>0.35</v>
       </c>
       <c r="V14">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W14">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X14">
         <v>0.15</v>
       </c>
       <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>0.15</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3512,22 +7257,22 @@
         <v>0.35</v>
       </c>
       <c r="V15">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W15">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X15">
         <v>0.15</v>
       </c>
       <c r="Y15">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z15">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3595,25 +7340,25 @@
         <v>0.5</v>
       </c>
       <c r="U16">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V16">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="W16">
-        <v>0.45</v>
+        <v>-0.45</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y16">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z16">
-        <v>-0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3684,22 +7429,22 @@
         <v>0.5</v>
       </c>
       <c r="V17">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W17">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z17">
-        <v>-0.3</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3770,22 +7515,22 @@
         <v>0.5</v>
       </c>
       <c r="V18">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W18">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z18">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3856,22 +7601,22 @@
         <v>0.5</v>
       </c>
       <c r="V19">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3942,22 +7687,22 @@
         <v>0.5</v>
       </c>
       <c r="V20">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W20">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4028,22 +7773,22 @@
         <v>0.5</v>
       </c>
       <c r="V21">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W21">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z21">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4114,22 +7859,22 @@
         <v>0.5</v>
       </c>
       <c r="V22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W22">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4197,25 +7942,25 @@
         <v>0.5</v>
       </c>
       <c r="U23">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="V23">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="W23">
+        <v>-0.45</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>0.45</v>
       </c>
-      <c r="X23">
-        <v>0.15</v>
-      </c>
-      <c r="Y23">
-        <v>0.3</v>
-      </c>
       <c r="Z23">
-        <v>-0.15</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4286,22 +8031,22 @@
         <v>0.65</v>
       </c>
       <c r="V24">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W24">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X24">
         <v>0.15</v>
       </c>
       <c r="Y24">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4372,22 +8117,22 @@
         <v>0.65</v>
       </c>
       <c r="V25">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W25">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X25">
         <v>0.15</v>
       </c>
       <c r="Y25">
+        <v>0.15</v>
+      </c>
+      <c r="Z25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4458,22 +8203,22 @@
         <v>0.65</v>
       </c>
       <c r="V26">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X26">
         <v>0.15</v>
       </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>0.15</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4544,22 +8289,22 @@
         <v>0.65</v>
       </c>
       <c r="V27">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W27">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0.15</v>
       </c>
       <c r="Y27">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z27">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4630,22 +8375,22 @@
         <v>0.65</v>
       </c>
       <c r="V28">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W28">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X28">
         <v>0.15</v>
       </c>
       <c r="Y28">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z28">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4713,25 +8458,25 @@
         <v>0.5</v>
       </c>
       <c r="U29">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="V29">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="W29">
+        <v>-0.3</v>
+      </c>
+      <c r="X29">
+        <v>0.15</v>
+      </c>
+      <c r="Y29">
         <v>0.45</v>
       </c>
-      <c r="X29">
-        <v>0.3</v>
-      </c>
-      <c r="Y29">
-        <v>0.15</v>
-      </c>
       <c r="Z29">
-        <v>0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4802,22 +8547,22 @@
         <v>0.8</v>
       </c>
       <c r="V30">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W30">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X30">
         <v>0.3</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z30">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4888,22 +8633,22 @@
         <v>0.8</v>
       </c>
       <c r="V31">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W31">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X31">
         <v>0.3</v>
       </c>
       <c r="Y31">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4974,22 +8719,22 @@
         <v>0.8</v>
       </c>
       <c r="V32">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X32">
         <v>0.3</v>
       </c>
       <c r="Y32">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5060,22 +8805,22 @@
         <v>0.8</v>
       </c>
       <c r="V33">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W33">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <v>0.3</v>
       </c>
       <c r="Y33">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z33">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5143,25 +8888,25 @@
         <v>0.5</v>
       </c>
       <c r="U34">
+        <v>0.8</v>
+      </c>
+      <c r="V34">
         <v>0.95</v>
       </c>
-      <c r="V34">
-        <v>0.5</v>
-      </c>
       <c r="W34">
+        <v>-0.15</v>
+      </c>
+      <c r="X34">
+        <v>0.3</v>
+      </c>
+      <c r="Y34">
         <v>0.45</v>
       </c>
-      <c r="X34">
-        <v>0.45</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
       <c r="Z34">
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5232,22 +8977,22 @@
         <v>0.95</v>
       </c>
       <c r="V35">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W35">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X35">
         <v>0.45</v>
       </c>
       <c r="Y35">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5318,22 +9063,22 @@
         <v>0.95</v>
       </c>
       <c r="V36">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W36">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X36">
         <v>0.45</v>
       </c>
       <c r="Y36">
+        <v>0.15</v>
+      </c>
+      <c r="Z36">
         <v>0.3</v>
       </c>
-      <c r="Z36">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5404,22 +9149,22 @@
         <v>0.95</v>
       </c>
       <c r="V37">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X37">
         <v>0.45</v>
       </c>
       <c r="Y37">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5484,13 +9229,13 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="T38">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="U38">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="V38">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -5505,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5576,22 +9321,22 @@
         <v>0.05</v>
       </c>
       <c r="V39">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W39">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <v>0.45</v>
       </c>
       <c r="Y39">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z39">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5662,22 +9407,22 @@
         <v>0.05</v>
       </c>
       <c r="V40">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W40">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X40">
         <v>0.45</v>
       </c>
       <c r="Y40">
+        <v>0.3</v>
+      </c>
+      <c r="Z40">
         <v>0.15</v>
       </c>
-      <c r="Z40">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5748,22 +9493,22 @@
         <v>0.05</v>
       </c>
       <c r="V41">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W41">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X41">
         <v>0.45</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5831,25 +9576,25 @@
         <v>0.65</v>
       </c>
       <c r="U42">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="V42">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W42">
-        <v>0.15</v>
+        <v>-0.45</v>
       </c>
       <c r="X42">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
         <v>0.45</v>
       </c>
-      <c r="Z42">
-        <v>-0.15</v>
-      </c>
     </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5920,22 +9665,22 @@
         <v>0.2</v>
       </c>
       <c r="V43">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X43">
         <v>0.3</v>
       </c>
       <c r="Y43">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6006,22 +9751,22 @@
         <v>0.2</v>
       </c>
       <c r="V44">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W44">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X44">
         <v>0.3</v>
       </c>
       <c r="Y44">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z44">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6092,22 +9837,22 @@
         <v>0.2</v>
       </c>
       <c r="V45">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W45">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X45">
         <v>0.3</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z45">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6178,22 +9923,22 @@
         <v>0.2</v>
       </c>
       <c r="V46">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W46">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X46">
         <v>0.3</v>
       </c>
       <c r="Y46">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6261,25 +10006,25 @@
         <v>0.65</v>
       </c>
       <c r="U47">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="V47">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="W47">
+        <v>-0.45</v>
+      </c>
+      <c r="X47">
         <v>0.3</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>0.15</v>
       </c>
-      <c r="Y47">
-        <v>0.45</v>
-      </c>
       <c r="Z47">
-        <v>-0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6350,22 +10095,22 @@
         <v>0.35</v>
       </c>
       <c r="V48">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W48">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X48">
         <v>0.15</v>
       </c>
       <c r="Y48">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z48">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6436,22 +10181,22 @@
         <v>0.35</v>
       </c>
       <c r="V49">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X49">
         <v>0.15</v>
       </c>
       <c r="Y49">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6522,22 +10267,22 @@
         <v>0.35</v>
       </c>
       <c r="V50">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W50">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X50">
         <v>0.15</v>
       </c>
       <c r="Y50">
+        <v>0.15</v>
+      </c>
+      <c r="Z50">
         <v>0</v>
       </c>
-      <c r="Z50">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6608,22 +10353,22 @@
         <v>0.35</v>
       </c>
       <c r="V51">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W51">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X51">
         <v>0.15</v>
       </c>
       <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
         <v>0.15</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6694,22 +10439,22 @@
         <v>0.35</v>
       </c>
       <c r="V52">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W52">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X52">
         <v>0.15</v>
       </c>
       <c r="Y52">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z52">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6777,25 +10522,25 @@
         <v>0.65</v>
       </c>
       <c r="U53">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V53">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="W53">
-        <v>0.45</v>
+        <v>-0.45</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y53">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z53">
-        <v>-0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6866,22 +10611,22 @@
         <v>0.5</v>
       </c>
       <c r="V54">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W54">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.3</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6952,22 +10697,22 @@
         <v>0.5</v>
       </c>
       <c r="V55">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z55">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7038,22 +10783,22 @@
         <v>0.5</v>
       </c>
       <c r="V56">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X56">
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7124,22 +10869,22 @@
         <v>0.5</v>
       </c>
       <c r="V57">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W57">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7210,22 +10955,22 @@
         <v>0.5</v>
       </c>
       <c r="V58">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W58">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X58">
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z58">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7296,22 +11041,22 @@
         <v>0.5</v>
       </c>
       <c r="V59">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W59">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X59">
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z59">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7379,25 +11124,25 @@
         <v>0.65</v>
       </c>
       <c r="U60">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="V60">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="W60">
+        <v>-0.45</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
         <v>0.45</v>
       </c>
-      <c r="X60">
-        <v>0.15</v>
-      </c>
-      <c r="Y60">
-        <v>0.3</v>
-      </c>
       <c r="Z60">
-        <v>-0.15</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7468,22 +11213,22 @@
         <v>0.65</v>
       </c>
       <c r="V61">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W61">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X61">
         <v>0.15</v>
       </c>
       <c r="Y61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7554,22 +11299,22 @@
         <v>0.65</v>
       </c>
       <c r="V62">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X62">
         <v>0.15</v>
       </c>
       <c r="Y62">
+        <v>0.15</v>
+      </c>
+      <c r="Z62">
         <v>0</v>
       </c>
-      <c r="Z62">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7640,22 +11385,22 @@
         <v>0.65</v>
       </c>
       <c r="V63">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X63">
         <v>0.15</v>
       </c>
       <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
         <v>0.15</v>
       </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7726,22 +11471,22 @@
         <v>0.65</v>
       </c>
       <c r="V64">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W64">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X64">
         <v>0.15</v>
       </c>
       <c r="Y64">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z64">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7812,22 +11557,22 @@
         <v>0.65</v>
       </c>
       <c r="V65">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W65">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X65">
         <v>0.15</v>
       </c>
       <c r="Y65">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z65">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7895,25 +11640,25 @@
         <v>0.65</v>
       </c>
       <c r="U66">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="V66">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="W66">
+        <v>-0.3</v>
+      </c>
+      <c r="X66">
+        <v>0.15</v>
+      </c>
+      <c r="Y66">
         <v>0.45</v>
       </c>
-      <c r="X66">
-        <v>0.3</v>
-      </c>
-      <c r="Y66">
-        <v>0.15</v>
-      </c>
       <c r="Z66">
-        <v>0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7984,22 +11729,22 @@
         <v>0.8</v>
       </c>
       <c r="V67">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W67">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X67">
         <v>0.3</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z67">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8070,22 +11815,22 @@
         <v>0.8</v>
       </c>
       <c r="V68">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X68">
         <v>0.3</v>
       </c>
       <c r="Y68">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8156,22 +11901,22 @@
         <v>0.8</v>
       </c>
       <c r="V69">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X69">
         <v>0.3</v>
       </c>
       <c r="Y69">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8242,22 +11987,22 @@
         <v>0.8</v>
       </c>
       <c r="V70">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W70">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X70">
         <v>0.3</v>
       </c>
       <c r="Y70">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z70">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8325,25 +12070,25 @@
         <v>0.65</v>
       </c>
       <c r="U71">
+        <v>0.8</v>
+      </c>
+      <c r="V71">
         <v>0.95</v>
       </c>
-      <c r="V71">
-        <v>0.5</v>
-      </c>
       <c r="W71">
+        <v>-0.15</v>
+      </c>
+      <c r="X71">
+        <v>0.3</v>
+      </c>
+      <c r="Y71">
         <v>0.45</v>
       </c>
-      <c r="X71">
-        <v>0.45</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
       <c r="Z71">
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8414,22 +12159,22 @@
         <v>0.95</v>
       </c>
       <c r="V72">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W72">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X72">
         <v>0.45</v>
       </c>
       <c r="Y72">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8500,22 +12245,22 @@
         <v>0.95</v>
       </c>
       <c r="V73">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W73">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X73">
         <v>0.45</v>
       </c>
       <c r="Y73">
+        <v>0.15</v>
+      </c>
+      <c r="Z73">
         <v>0.3</v>
       </c>
-      <c r="Z73">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8586,22 +12331,22 @@
         <v>0.95</v>
       </c>
       <c r="V74">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X74">
         <v>0.45</v>
       </c>
       <c r="Y74">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8666,13 +12411,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="T75">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="U75">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="V75">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -8687,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8758,22 +12503,22 @@
         <v>0.05</v>
       </c>
       <c r="V76">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W76">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X76">
         <v>0.45</v>
       </c>
       <c r="Y76">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z76">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8844,22 +12589,22 @@
         <v>0.05</v>
       </c>
       <c r="V77">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W77">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X77">
         <v>0.45</v>
       </c>
       <c r="Y77">
+        <v>0.3</v>
+      </c>
+      <c r="Z77">
         <v>0.15</v>
       </c>
-      <c r="Z77">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8930,22 +12675,22 @@
         <v>0.05</v>
       </c>
       <c r="V78">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W78">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X78">
         <v>0.45</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z78">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9013,25 +12758,25 @@
         <v>0.8</v>
       </c>
       <c r="U79">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="V79">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W79">
-        <v>0.15</v>
+        <v>-0.45</v>
       </c>
       <c r="X79">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
         <v>0.45</v>
       </c>
-      <c r="Z79">
-        <v>-0.15</v>
-      </c>
     </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9102,22 +12847,22 @@
         <v>0.2</v>
       </c>
       <c r="V80">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X80">
         <v>0.3</v>
       </c>
       <c r="Y80">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9188,22 +12933,22 @@
         <v>0.2</v>
       </c>
       <c r="V81">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W81">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X81">
         <v>0.3</v>
       </c>
       <c r="Y81">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z81">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9274,22 +13019,22 @@
         <v>0.2</v>
       </c>
       <c r="V82">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W82">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X82">
         <v>0.3</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z82">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9360,22 +13105,22 @@
         <v>0.2</v>
       </c>
       <c r="V83">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W83">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X83">
         <v>0.3</v>
       </c>
       <c r="Y83">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z83">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9443,25 +13188,25 @@
         <v>0.8</v>
       </c>
       <c r="U84">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="V84">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="W84">
+        <v>-0.45</v>
+      </c>
+      <c r="X84">
         <v>0.3</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>0.15</v>
       </c>
-      <c r="Y84">
-        <v>0.45</v>
-      </c>
       <c r="Z84">
-        <v>-0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9532,22 +13277,22 @@
         <v>0.35</v>
       </c>
       <c r="V85">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W85">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X85">
         <v>0.15</v>
       </c>
       <c r="Y85">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z85">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9618,22 +13363,22 @@
         <v>0.35</v>
       </c>
       <c r="V86">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X86">
         <v>0.15</v>
       </c>
       <c r="Y86">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9704,22 +13449,22 @@
         <v>0.35</v>
       </c>
       <c r="V87">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W87">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X87">
         <v>0.15</v>
       </c>
       <c r="Y87">
+        <v>0.15</v>
+      </c>
+      <c r="Z87">
         <v>0</v>
       </c>
-      <c r="Z87">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9790,22 +13535,22 @@
         <v>0.35</v>
       </c>
       <c r="V88">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W88">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X88">
         <v>0.15</v>
       </c>
       <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
         <v>0.15</v>
       </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9876,22 +13621,22 @@
         <v>0.35</v>
       </c>
       <c r="V89">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W89">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X89">
         <v>0.15</v>
       </c>
       <c r="Y89">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z89">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9959,25 +13704,25 @@
         <v>0.8</v>
       </c>
       <c r="U90">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V90">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="W90">
-        <v>0.45</v>
+        <v>-0.45</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y90">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z90">
-        <v>-0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10048,22 +13793,22 @@
         <v>0.5</v>
       </c>
       <c r="V91">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W91">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X91">
         <v>0</v>
       </c>
       <c r="Y91">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z91">
-        <v>-0.3</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10134,22 +13879,22 @@
         <v>0.5</v>
       </c>
       <c r="V92">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W92">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X92">
         <v>0</v>
       </c>
       <c r="Y92">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z92">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10220,22 +13965,22 @@
         <v>0.5</v>
       </c>
       <c r="V93">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X93">
         <v>0</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10306,22 +14051,22 @@
         <v>0.5</v>
       </c>
       <c r="V94">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W94">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X94">
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z94">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10392,22 +14137,22 @@
         <v>0.5</v>
       </c>
       <c r="V95">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W95">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X95">
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z95">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10478,22 +14223,22 @@
         <v>0.5</v>
       </c>
       <c r="V96">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W96">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X96">
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z96">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10561,25 +14306,25 @@
         <v>0.8</v>
       </c>
       <c r="U97">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="V97">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="W97">
+        <v>-0.45</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
         <v>0.45</v>
       </c>
-      <c r="X97">
-        <v>0.15</v>
-      </c>
-      <c r="Y97">
-        <v>0.3</v>
-      </c>
       <c r="Z97">
-        <v>-0.15</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10650,22 +14395,22 @@
         <v>0.65</v>
       </c>
       <c r="V98">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W98">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X98">
         <v>0.15</v>
       </c>
       <c r="Y98">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10736,22 +14481,22 @@
         <v>0.65</v>
       </c>
       <c r="V99">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W99">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X99">
         <v>0.15</v>
       </c>
       <c r="Y99">
+        <v>0.15</v>
+      </c>
+      <c r="Z99">
         <v>0</v>
       </c>
-      <c r="Z99">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10822,22 +14567,22 @@
         <v>0.65</v>
       </c>
       <c r="V100">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X100">
         <v>0.15</v>
       </c>
       <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
         <v>0.15</v>
       </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
     </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10908,22 +14653,22 @@
         <v>0.65</v>
       </c>
       <c r="V101">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W101">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X101">
         <v>0.15</v>
       </c>
       <c r="Y101">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z101">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10994,22 +14739,22 @@
         <v>0.65</v>
       </c>
       <c r="V102">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W102">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X102">
         <v>0.15</v>
       </c>
       <c r="Y102">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z102">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11077,25 +14822,25 @@
         <v>0.8</v>
       </c>
       <c r="U103">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="V103">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="W103">
+        <v>-0.3</v>
+      </c>
+      <c r="X103">
+        <v>0.15</v>
+      </c>
+      <c r="Y103">
         <v>0.45</v>
       </c>
-      <c r="X103">
-        <v>0.3</v>
-      </c>
-      <c r="Y103">
-        <v>0.15</v>
-      </c>
       <c r="Z103">
-        <v>0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11166,22 +14911,22 @@
         <v>0.8</v>
       </c>
       <c r="V104">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W104">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X104">
         <v>0.3</v>
       </c>
       <c r="Y104">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z104">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11252,22 +14997,22 @@
         <v>0.8</v>
       </c>
       <c r="V105">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W105">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X105">
         <v>0.3</v>
       </c>
       <c r="Y105">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z105">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11338,22 +15083,22 @@
         <v>0.8</v>
       </c>
       <c r="V106">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X106">
         <v>0.3</v>
       </c>
       <c r="Y106">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11424,22 +15169,22 @@
         <v>0.8</v>
       </c>
       <c r="V107">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W107">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X107">
         <v>0.3</v>
       </c>
       <c r="Y107">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z107">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11507,25 +15252,25 @@
         <v>0.8</v>
       </c>
       <c r="U108">
+        <v>0.8</v>
+      </c>
+      <c r="V108">
         <v>0.95</v>
       </c>
-      <c r="V108">
-        <v>0.5</v>
-      </c>
       <c r="W108">
+        <v>-0.15</v>
+      </c>
+      <c r="X108">
+        <v>0.3</v>
+      </c>
+      <c r="Y108">
         <v>0.45</v>
       </c>
-      <c r="X108">
-        <v>0.45</v>
-      </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
       <c r="Z108">
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11596,22 +15341,22 @@
         <v>0.95</v>
       </c>
       <c r="V109">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W109">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X109">
         <v>0.45</v>
       </c>
       <c r="Y109">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z109">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
-    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11682,22 +15427,22 @@
         <v>0.95</v>
       </c>
       <c r="V110">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W110">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X110">
         <v>0.45</v>
       </c>
       <c r="Y110">
+        <v>0.15</v>
+      </c>
+      <c r="Z110">
         <v>0.3</v>
       </c>
-      <c r="Z110">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11768,22 +15513,22 @@
         <v>0.95</v>
       </c>
       <c r="V111">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X111">
         <v>0.45</v>
       </c>
       <c r="Y111">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11848,13 +15593,13 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="T112">
+        <v>0.8</v>
+      </c>
+      <c r="U112">
         <v>0.95</v>
       </c>
-      <c r="U112">
-        <v>0.05</v>
-      </c>
       <c r="V112">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="W112">
         <v>0</v>
@@ -11869,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11940,22 +15685,22 @@
         <v>0.05</v>
       </c>
       <c r="V113">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W113">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X113">
         <v>0.45</v>
       </c>
       <c r="Y113">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z113">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12026,22 +15771,22 @@
         <v>0.05</v>
       </c>
       <c r="V114">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W114">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X114">
         <v>0.45</v>
       </c>
       <c r="Y114">
+        <v>0.3</v>
+      </c>
+      <c r="Z114">
         <v>0.15</v>
       </c>
-      <c r="Z114">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12112,22 +15857,22 @@
         <v>0.05</v>
       </c>
       <c r="V115">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W115">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X115">
         <v>0.45</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z115">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -12195,25 +15940,25 @@
         <v>0.95</v>
       </c>
       <c r="U116">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="V116">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="W116">
-        <v>0.15</v>
+        <v>-0.45</v>
       </c>
       <c r="X116">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
         <v>0.45</v>
       </c>
-      <c r="Z116">
-        <v>-0.15</v>
-      </c>
     </row>
-    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12284,22 +16029,22 @@
         <v>0.2</v>
       </c>
       <c r="V117">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W117">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X117">
         <v>0.3</v>
       </c>
       <c r="Y117">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12370,22 +16115,22 @@
         <v>0.2</v>
       </c>
       <c r="V118">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W118">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X118">
         <v>0.3</v>
       </c>
       <c r="Y118">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z118">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12456,22 +16201,22 @@
         <v>0.2</v>
       </c>
       <c r="V119">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W119">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X119">
         <v>0.3</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z119">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12542,22 +16287,22 @@
         <v>0.2</v>
       </c>
       <c r="V120">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W120">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X120">
         <v>0.3</v>
       </c>
       <c r="Y120">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z120">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12625,25 +16370,25 @@
         <v>0.95</v>
       </c>
       <c r="U121">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="V121">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="W121">
+        <v>-0.45</v>
+      </c>
+      <c r="X121">
         <v>0.3</v>
       </c>
-      <c r="X121">
+      <c r="Y121">
         <v>0.15</v>
       </c>
-      <c r="Y121">
-        <v>0.45</v>
-      </c>
       <c r="Z121">
-        <v>-0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12714,22 +16459,22 @@
         <v>0.35</v>
       </c>
       <c r="V122">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W122">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X122">
         <v>0.15</v>
       </c>
       <c r="Y122">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z122">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12800,22 +16545,22 @@
         <v>0.35</v>
       </c>
       <c r="V123">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X123">
         <v>0.15</v>
       </c>
       <c r="Y123">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12886,22 +16631,22 @@
         <v>0.35</v>
       </c>
       <c r="V124">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W124">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X124">
         <v>0.15</v>
       </c>
       <c r="Y124">
+        <v>0.15</v>
+      </c>
+      <c r="Z124">
         <v>0</v>
       </c>
-      <c r="Z124">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12972,22 +16717,22 @@
         <v>0.35</v>
       </c>
       <c r="V125">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W125">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X125">
         <v>0.15</v>
       </c>
       <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
         <v>0.15</v>
       </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
     </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13058,22 +16803,22 @@
         <v>0.35</v>
       </c>
       <c r="V126">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W126">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X126">
         <v>0.15</v>
       </c>
       <c r="Y126">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z126">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13141,25 +16886,25 @@
         <v>0.95</v>
       </c>
       <c r="U127">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V127">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="W127">
-        <v>0.45</v>
+        <v>-0.45</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y127">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z127">
-        <v>-0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13230,22 +16975,22 @@
         <v>0.5</v>
       </c>
       <c r="V128">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="W128">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X128">
         <v>0</v>
       </c>
       <c r="Y128">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z128">
-        <v>-0.3</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13316,22 +17061,22 @@
         <v>0.5</v>
       </c>
       <c r="V129">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W129">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
         <v>0</v>
       </c>
       <c r="Y129">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z129">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13402,22 +17147,22 @@
         <v>0.5</v>
       </c>
       <c r="V130">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X130">
         <v>0</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13488,22 +17233,22 @@
         <v>0.5</v>
       </c>
       <c r="V131">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W131">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X131">
         <v>0</v>
       </c>
       <c r="Y131">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z131">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13574,22 +17319,22 @@
         <v>0.5</v>
       </c>
       <c r="V132">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W132">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X132">
         <v>0</v>
       </c>
       <c r="Y132">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z132">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13660,22 +17405,22 @@
         <v>0.5</v>
       </c>
       <c r="V133">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W133">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="X133">
         <v>0</v>
       </c>
       <c r="Y133">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z133">
-        <v>-0.45</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13743,25 +17488,25 @@
         <v>0.95</v>
       </c>
       <c r="U134">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="V134">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="W134">
+        <v>-0.45</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
         <v>0.45</v>
       </c>
-      <c r="X134">
-        <v>0.15</v>
-      </c>
-      <c r="Y134">
-        <v>0.3</v>
-      </c>
       <c r="Z134">
-        <v>-0.15</v>
+        <v>-0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13832,22 +17577,22 @@
         <v>0.65</v>
       </c>
       <c r="V135">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="W135">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
         <v>0.15</v>
       </c>
       <c r="Y135">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13918,22 +17663,22 @@
         <v>0.65</v>
       </c>
       <c r="V136">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W136">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X136">
         <v>0.15</v>
       </c>
       <c r="Y136">
+        <v>0.15</v>
+      </c>
+      <c r="Z136">
         <v>0</v>
       </c>
-      <c r="Z136">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -14004,22 +17749,22 @@
         <v>0.65</v>
       </c>
       <c r="V137">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X137">
         <v>0.15</v>
       </c>
       <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
         <v>0.15</v>
       </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
     </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -14090,22 +17835,22 @@
         <v>0.65</v>
       </c>
       <c r="V138">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W138">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X138">
         <v>0.15</v>
       </c>
       <c r="Y138">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z138">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -14176,22 +17921,22 @@
         <v>0.65</v>
       </c>
       <c r="V139">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W139">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="X139">
         <v>0.15</v>
       </c>
       <c r="Y139">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z139">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -14259,25 +18004,25 @@
         <v>0.95</v>
       </c>
       <c r="U140">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="V140">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="W140">
+        <v>-0.3</v>
+      </c>
+      <c r="X140">
+        <v>0.15</v>
+      </c>
+      <c r="Y140">
         <v>0.45</v>
       </c>
-      <c r="X140">
-        <v>0.3</v>
-      </c>
-      <c r="Y140">
-        <v>0.15</v>
-      </c>
       <c r="Z140">
-        <v>0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -14348,22 +18093,22 @@
         <v>0.8</v>
       </c>
       <c r="V141">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="W141">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X141">
         <v>0.3</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z141">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -14434,22 +18179,22 @@
         <v>0.8</v>
       </c>
       <c r="V142">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W142">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X142">
         <v>0.3</v>
       </c>
       <c r="Y142">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z142">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -14520,22 +18265,22 @@
         <v>0.8</v>
       </c>
       <c r="V143">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X143">
         <v>0.3</v>
       </c>
       <c r="Y143">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -14606,22 +18351,22 @@
         <v>0.8</v>
       </c>
       <c r="V144">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W144">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="X144">
         <v>0.3</v>
       </c>
       <c r="Y144">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z144">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -14689,25 +18434,25 @@
         <v>0.95</v>
       </c>
       <c r="U145">
+        <v>0.8</v>
+      </c>
+      <c r="V145">
         <v>0.95</v>
       </c>
-      <c r="V145">
-        <v>0.5</v>
-      </c>
       <c r="W145">
+        <v>-0.15</v>
+      </c>
+      <c r="X145">
+        <v>0.3</v>
+      </c>
+      <c r="Y145">
         <v>0.45</v>
       </c>
-      <c r="X145">
-        <v>0.45</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
       <c r="Z145">
-        <v>0.45</v>
+        <v>-0.15</v>
       </c>
     </row>
-    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -14778,22 +18523,22 @@
         <v>0.95</v>
       </c>
       <c r="V146">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="W146">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="X146">
         <v>0.45</v>
       </c>
       <c r="Y146">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Z146">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
-    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -14864,22 +18609,22 @@
         <v>0.95</v>
       </c>
       <c r="V147">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="W147">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X147">
         <v>0.45</v>
       </c>
       <c r="Y147">
+        <v>0.15</v>
+      </c>
+      <c r="Z147">
         <v>0.3</v>
       </c>
-      <c r="Z147">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -14950,19 +18695,19 @@
         <v>0.95</v>
       </c>
       <c r="V148">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X148">
         <v>0.45</v>
       </c>
       <c r="Y148">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -14990,11 +18735,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CE69DD-281A-4DD7-B998-6DF9A99A26FC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CI_Biases_EG_SDANDMEAN.xlsx
+++ b/CI_Biases_EG_SDANDMEAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxx\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BIASpects-bias-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D874F7-55A1-4F6C-8107-BB59F9DF1001}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA97A2A-0351-44EA-947C-D8A17DA523BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CI_Biases_EG_SDANDMEAN" sheetId="1" r:id="rId1"/>
@@ -113,6 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +432,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -590,8 +599,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -690,10 +701,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.72811861006064E-3"/>
+          <c:x val="9.9025391099753682E-2"/>
           <c:y val="2.2124764174224338E-2"/>
-          <c:w val="0.97412102968541892"/>
-          <c:h val="0.95413544963566732"/>
+          <c:w val="0.72672499740033003"/>
+          <c:h val="0.90030751188709801"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -720,907 +731,193 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>CI_Biases_EG_SDANDMEAN!$F$2:$F$148</c:f>
+                <c:f>CI_Biases_EG_SDANDMEAN!$F$2:$F$149</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="147"/>
+                  <c:ptCount val="28"/>
                   <c:pt idx="0">
                     <c:v>1.9E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2000000000000084E-3</c:v>
+                    <c:v>3.5000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>3.5000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>3.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.7000000000000079E-3</c:v>
+                    <c:v>3.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>3.5000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.600000000000006E-3</c:v>
+                    <c:v>2.1000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.699999999999995E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.7999999999999978E-3</c:v>
+                    <c:v>3.3999999999999994E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.0000000000000027E-3</c:v>
+                    <c:v>3.8000000000000004E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>4.0999999999999995E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5000000000000001E-3</c:v>
+                    <c:v>3.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
+                    <c:v>3.7999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.1000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.8000000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
                     <c:v>4.0999999999999995E-3</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4.1999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>3.1000000000000194E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>3.699999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>3.6000000000000008E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3.8E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>4.1000000000000012E-3</c:v>
-                  </c:pt>
                   <c:pt idx="20">
-                    <c:v>3.3999999999999933E-3</c:v>
+                    <c:v>2.5000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>4.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.7999999999999978E-3</c:v>
+                    <c:v>8.3999999999999995E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>9.6000000000000009E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.2999999999999991E-3</c:v>
+                    <c:v>8.3999999999999995E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.5999999999999999E-3</c:v>
+                    <c:v>8.6999999999999994E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.0999999999999986E-3</c:v>
+                    <c:v>6.5000000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.5000000000000022E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>3.0999999999999986E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>3.4000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>3.5000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2.8000000000000108E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3.2000000000000084E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2.6999999999999941E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2.7999999999999969E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>3.8000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>4.5000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>4.4000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>3.699999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>2.7999999999999969E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>3.9999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>3.7999999999999909E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>2.6999999999999802E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>3.8E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>3.7999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>3.8E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>3.699999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>2.5000000000000022E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>3.7000000000000088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>3.9999999999999966E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>3.7999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>3.4000000000000141E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>3.1999999999999945E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>3.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>5.1000000000000073E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>4.699999999999982E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>3.2000000000000084E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>5.1999999999999963E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>5.0000000000000044E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>3.2000000000000084E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>4.4999999999999971E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>5.0999999999999986E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>5.000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>4.2000000000000023E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>3.0999999999999917E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>4.7000000000000028E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>5.000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>4.8000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>4.4999999999999988E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>2.9000000000000137E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>5.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>4.7000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>4.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>4.3000000000000052E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>2.9999999999999749E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>4.8999999999999946E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>4.6000000000000069E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>4.7000000000000028E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>2.9999999999999888E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>4.3999999999999873E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>4.7000000000000097E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>4.1999999999999954E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>2.5000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>9.3000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>1.1099999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>9.099999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>5.6999999999999967E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>8.3999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>9.5000000000000015E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>8.5999999999999965E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>9.1000000000000039E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>5.5000000000000049E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>7.6999999999999985E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>9.6000000000000009E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>8.7000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>9.3999999999999986E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>6.1000000000000013E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>5.2999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>8.5000000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>9.4000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>8.3999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>9.0999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>6.1000000000000013E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>5.2000000000000102E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>9.0000000000000045E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>9.5999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>8.2000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>8.6999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>6.8000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>9.099999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>8.10000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>9.1000000000000039E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>6.5000000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>4.6000000000000069E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>7.5000000000000067E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>9.6999999999999864E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>7.1000000000000091E-3</c:v>
+                    <c:v>3.8886476583801662E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>CI_Biases_EG_SDANDMEAN!$B$2:$B$148</c:f>
+                <c:f>CI_Biases_EG_SDANDMEAN!$B$2:$B$149</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="147"/>
+                  <c:ptCount val="28"/>
                   <c:pt idx="0">
                     <c:v>1.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1999999999999945E-3</c:v>
+                    <c:v>3.4000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.1000000000000194E-3</c:v>
+                    <c:v>3.4999999999999996E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.2000000000000084E-3</c:v>
+                    <c:v>3.8999999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.6999999999999941E-3</c:v>
+                    <c:v>3.4999999999999996E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>3.3999999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.4999999999999962E-3</c:v>
+                    <c:v>2.1000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.8000000000000048E-3</c:v>
+                    <c:v>1.9E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.7000000000000019E-3</c:v>
+                    <c:v>3.4999999999999996E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.1000000000000194E-3</c:v>
+                    <c:v>3.7999999999999996E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.3000000000000043E-3</c:v>
+                    <c:v>4.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.4999999999999996E-3</c:v>
+                    <c:v>3.7999999999999996E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.1000000000000003E-3</c:v>
+                    <c:v>3.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.1999999999999997E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>3.599999999999999E-3</c:v>
+                    <c:v>3.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>4.5000000000000005E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>3.7000000000000088E-3</c:v>
+                    <c:v>4.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.599999999999999E-3</c:v>
+                    <c:v>4.8000000000000004E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>3.8999999999999998E-3</c:v>
+                    <c:v>4.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>4.0999999999999995E-3</c:v>
+                    <c:v>4.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>3.3000000000000113E-3</c:v>
+                    <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>4.7000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.8000000000000048E-3</c:v>
+                    <c:v>8.3999999999999995E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>9.5999999999999992E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>8.3000000000000018E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4999999999999996E-3</c:v>
+                    <c:v>8.6999999999999994E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.2000000000000015E-3</c:v>
+                    <c:v>6.4999999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.5000000000000022E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>3.1000000000000055E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>3.3999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2.6999999999999941E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>2.9000000000000137E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3.0999999999999917E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>1.9E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>3.6000000000000199E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>2.7999999999999969E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3.4999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>4.1999999999999954E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2.7000000000000079E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>3.4999999999999962E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>3.7999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>4.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>4.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>2.7999999999999969E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>3.8000000000000117E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>2.7999999999999969E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>3.8E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>3.7999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>2.5999999999999912E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>4.0000000000000036E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>3.8E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>3.4999999999999754E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>3.2000000000000084E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>3.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>5.0999999999999934E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>4.6000000000000207E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>3.1999999999999945E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>4.5000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>5.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>5.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>4.3000000000000052E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>5.2000000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>4.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>3.0999999999999917E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>4.599999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>5.000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>4.8000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>2.8999999999999859E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>5.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>4.1999999999999954E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>2.9000000000000137E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>4.8000000000000057E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>4.6999999999999958E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>4.400000000000015E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>4.599999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>4.0999999999999925E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>2.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>4.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>9.2999999999999888E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>1.1099999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>9.000000000000008E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>5.6999999999999967E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>8.3999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>9.3999999999999986E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>8.6999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>9.0000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>5.4999999999999771E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>7.6000000000000026E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>9.5999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>8.6999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>9.3999999999999986E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>6.1000000000000013E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>5.3999999999999881E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>8.3999999999999977E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>9.4000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>8.3000000000000018E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>9.0000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>6.1999999999999972E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>5.2000000000000102E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>8.8999999999999982E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>9.6000000000000009E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>8.3000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>8.6999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>6.8000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>9.099999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>8.199999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>9.099999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>6.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>7.5999999999999956E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>9.7000000000000142E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>7.1999999999999981E-3</c:v>
+                    <c:v>3.8886476583801636E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1629,452 +926,275 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>CI_Biases_EG_SDANDMEAN!$T$2:$U$149</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="28"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CI_Biases_EG_SDANDMEAN!$D$2:$D$148</c:f>
+              <c:f>CI_Biases_EG_SDANDMEAN!$D$2:$D$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.9E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1399999999999995E-2</c:v>
+                  <c:v>-2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13850000000000001</c:v>
+                  <c:v>-3.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1512</c:v>
+                  <c:v>-5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.9200000000000002E-2</c:v>
+                  <c:v>-1E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.9999999999999997E-4</c:v>
+                  <c:v>2.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8099999999999997E-2</c:v>
+                  <c:v>-1.1000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2100000000000002E-2</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7300000000000002E-2</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.14069999999999999</c:v>
+                  <c:v>-2.7000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.1299999999999998E-2</c:v>
+                  <c:v>-5.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.3E-3</c:v>
+                  <c:v>-6.9999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7000000000000003E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.7999999999999996E-3</c:v>
+                  <c:v>-1.6000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.04E-2</c:v>
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.15440000000000001</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.5699999999999995E-2</c:v>
+                  <c:v>-2.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.7600000000000001E-2</c:v>
+                  <c:v>-3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.3E-3</c:v>
+                  <c:v>-6.9999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.8700000000000001E-2</c:v>
+                  <c:v>-1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.5199999999999994E-2</c:v>
+                  <c:v>-8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.1552</c:v>
+                  <c:v>-1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4.6199999999999998E-2</c:v>
+                  <c:v>1.35E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3E-3</c:v>
+                  <c:v>6.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>-3.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1E-3</c:v>
+                  <c:v>-4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.6199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.13650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.1200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.4600000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-8.8900000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.1502</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.1356</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.0200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.1000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.1391</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.14960000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.8599999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.1699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.65E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.1406</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-5.0700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-2.7000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-4.1000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-5.0799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.1547</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-6.4299999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-5.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.9199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-6.5199999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.15529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-4.5499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-6.9999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-4.5699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.13600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.0999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.3299999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.7800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-8.8800000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.1502</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.13519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.1300000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-1.6000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.2999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9.7199999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.13950000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.1507</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-8.9200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.8800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.4400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.1399</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-4.8599999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-2.5999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.17E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-7.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-5.0900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.1527</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-6.1600000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-1.7100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-3.2000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-1.9699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-6.4299999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.15190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.4299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.47E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-6.9999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-4.7800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.13469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.8800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6.2899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.4499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-1.2999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.1517</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.13669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>9.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-8.0000000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-1.2999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.11559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.15429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.1535</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-8.77E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>5.6899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6.5500000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>4.2599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.13650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-4.2099999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.29E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-3.5999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-4.9099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.14810000000000001</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-5.2600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-8.2000000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-3.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-1.7399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-6.3500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.1454</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.06E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.52E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-4.6699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.12959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>5.6099999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>6.4699999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4.3499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
                   <c:v>-4.0000000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="143">
-                  <c:v>-8.3400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.15229999999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.14560000000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.1074</c:v>
+                <c:pt idx="27" formatCode="0.0000">
+                  <c:v>-8.1148325358851596E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,907 +1225,193 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>CI_Biases_EG_SDANDMEAN!$L$2:$L$148</c:f>
+                <c:f>CI_Biases_EG_SDANDMEAN!$L$2:$L$149</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="147"/>
+                  <c:ptCount val="28"/>
                   <c:pt idx="0">
                     <c:v>1.9000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>3.3E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.3000000000000251E-3</c:v>
+                    <c:v>3.7000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.1999999999999806E-3</c:v>
+                    <c:v>3.8999999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.8999999999999998E-3</c:v>
+                    <c:v>3.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>3.3E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.599999999999999E-3</c:v>
+                    <c:v>2.0999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.0000000000000036E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.9000000000000007E-3</c:v>
+                    <c:v>3.4000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.1000000000000194E-3</c:v>
+                    <c:v>4.1000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>4.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.7000000000000002E-3</c:v>
+                    <c:v>3.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
+                    <c:v>3.6999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.9E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.9999999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
                     <c:v>4.0999999999999995E-3</c:v>
                   </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4.2000000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
                   <c:pt idx="20">
-                    <c:v>3.699999999999995E-3</c:v>
+                    <c:v>2.5000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>4.3999999999999994E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.8999999999999937E-3</c:v>
+                    <c:v>8.3000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.7000000000000002E-3</c:v>
+                    <c:v>8.9999999999999993E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>7.4999999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.5999999999999999E-3</c:v>
+                    <c:v>8.0000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.2000000000000015E-3</c:v>
+                    <c:v>6.3999999999999994E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.600000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>3.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3.4000000000000141E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2.0999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3.699999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>3.7000000000000088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3.4000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>4.0999999999999925E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>4.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>4.4000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>3.9999999999999966E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>4.1999999999999989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>3.7999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>2.9999999999999749E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>4.1999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>3.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>3.8E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>3.699999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>2.5999999999999912E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>3.6999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>3.9000000000000146E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>3.6000000000000199E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>3.1999999999999945E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>1.9E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>2.9999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>5.0000000000000044E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>5.0000000000000044E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>3.2000000000000084E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>4.9000000000000016E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>4.9999999999999906E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>5.0999999999999934E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>4.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>4.9999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>5.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>4.6999999999999958E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>5.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>5.5000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>5.3999999999999951E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>4.7000000000000097E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>3.0999999999999917E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>4.599999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>2.5000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>4.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>9.1000000000000109E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>1.1200000000000015E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>1.0500000000000009E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>5.6000000000000077E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>8.3000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>9.099999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>9.1000000000000109E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>9.7999999999999893E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>6.0000000000000053E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>7.8999999999999973E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>8.9999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>8.8999999999999982E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>9.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>7.1999999999999981E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>6.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>8.3999999999999977E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>7.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>7.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>7.4000000000000038E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>6.1999999999999972E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>9.6000000000000009E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>9.9999999999999985E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>7.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>8.0000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>7.0999999999999952E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>5.400000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>1.1200000000000002E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>8.3000000000000018E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>9.0000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>6.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>9.6999999999999864E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>1.1099999999999999E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>7.6000000000000095E-3</c:v>
+                    <c:v>3.8890790795259797E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>CI_Biases_EG_SDANDMEAN!$H$2:$H$148</c:f>
+                <c:f>CI_Biases_EG_SDANDMEAN!$H$2:$H$149</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="147"/>
+                  <c:ptCount val="28"/>
                   <c:pt idx="0">
                     <c:v>1.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1000000000000055E-3</c:v>
+                    <c:v>3.3E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.2999999999999974E-3</c:v>
+                    <c:v>3.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.2000000000000084E-3</c:v>
+                    <c:v>3.9000000000000007E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.8999999999999998E-3</c:v>
+                    <c:v>3.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.3E-3</c:v>
+                    <c:v>3.4000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.599999999999999E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.9000000000000007E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.7999999999999978E-3</c:v>
+                    <c:v>3.3999999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.1999999999999806E-3</c:v>
+                    <c:v>4.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.4000000000000002E-3</c:v>
+                    <c:v>4.0999999999999995E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5999999999999999E-3</c:v>
+                    <c:v>3.7000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.0999999999999995E-3</c:v>
+                    <c:v>3.7000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.1999999999999989E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>3.7999999999999978E-3</c:v>
+                    <c:v>3.0999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>3.4999999999999754E-3</c:v>
+                    <c:v>4.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>3.7999999999999978E-3</c:v>
+                    <c:v>4.7000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.7000000000000019E-3</c:v>
+                    <c:v>4.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>3.9000000000000007E-3</c:v>
+                    <c:v>4.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>3.8999999999999972E-3</c:v>
+                    <c:v>4.1000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>3.600000000000006E-3</c:v>
+                    <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>3.1000000000000194E-3</c:v>
+                    <c:v>4.4000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.8000000000000048E-3</c:v>
+                    <c:v>8.3999999999999995E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.8E-3</c:v>
+                    <c:v>9.1000000000000004E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.3999999999999985E-3</c:v>
+                    <c:v>7.4999999999999989E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.5999999999999999E-3</c:v>
+                    <c:v>8.0000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.2000000000000015E-3</c:v>
+                    <c:v>6.4000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.6999999999999802E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2.9999999999999957E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>3.699999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>3.4000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>3.0999999999999917E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3.3999999999999864E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3.7000000000000088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>3.6999999999999811E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>3.7000000000000088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3.3999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>4.0000000000000036E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>3.1999999999999806E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>4.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>4.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>3.7999999999999909E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>3.7000000000000088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>2.9000000000000137E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>4.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>3.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>3.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>2.7000000000000079E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>3.699999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>3.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>3.1000000000000055E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>3.0999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>4.9000000000000016E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>4.8999999999999877E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>4.9000000000000016E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>5.2000000000000032E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>4.7000000000000028E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>4.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>5.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>5.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>5.2999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>4.2000000000000023E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>3.3999999999999864E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>5.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>5.2999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>4.6999999999999958E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>4.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>3.1000000000000055E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>4.599999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>4.500000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>2.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>4.4000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>9.099999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>1.1300000000000004E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>1.0399999999999993E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>5.6999999999999967E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>8.3999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>9.1000000000000039E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>9.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>9.7000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>6.0999999999999943E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>7.8000000000000014E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>9.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>8.9000000000000017E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>9.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>7.3000000000000009E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>6.399999999999989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>8.3999999999999977E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>1.01E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>7.4999999999999989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>7.6999999999999985E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>7.4000000000000038E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>6.3000000000000139E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>9.7000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>1.0000000000000002E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>7.2000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>8.0000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>7.1000000000000021E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>5.400000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>1.1200000000000002E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>8.3000000000000018E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>9.099999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>6.4000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>4.8999999999999877E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>9.8000000000000032E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>1.1200000000000015E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>7.6999999999999985E-3</c:v>
+                    <c:v>3.8890790795259806E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -3014,452 +1420,275 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>CI_Biases_EG_SDANDMEAN!$T$2:$U$149</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="28"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CI_Biases_EG_SDANDMEAN!$J$2:$J$148</c:f>
+              <c:f>CI_Biases_EG_SDANDMEAN!$J$2:$J$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1800000000000007E-2</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13719999999999999</c:v>
+                  <c:v>-4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14960000000000001</c:v>
+                  <c:v>-5.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.9899999999999994E-2</c:v>
+                  <c:v>-1.1999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>3.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>-5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>1.1999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6300000000000001E-2</c:v>
+                  <c:v>1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.13950000000000001</c:v>
+                  <c:v>-3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.0200000000000002E-2</c:v>
+                  <c:v>-5.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.0000000000000001E-3</c:v>
+                  <c:v>-6.9999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.21E-2</c:v>
+                  <c:v>1.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.1000000000000004E-3</c:v>
+                  <c:v>-1.6000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.0500000000000003E-2</c:v>
+                  <c:v>1.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.15160000000000001</c:v>
+                  <c:v>1.9E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.4500000000000002E-2</c:v>
+                  <c:v>-4.1000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>-2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.4999999999999997E-3</c:v>
+                  <c:v>-1.6000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.9800000000000002E-2</c:v>
+                  <c:v>-1.2999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.5199999999999994E-2</c:v>
+                  <c:v>-8.9999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.15409999999999999</c:v>
+                  <c:v>-1E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4.8099999999999997E-2</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0000000000000002E-4</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3299999999999999E-2</c:v>
+                  <c:v>-4.1000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.1999999999999999E-3</c:v>
+                  <c:v>-4.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.5499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.13550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.6899999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.2399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-9.0300000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.1502</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.13539999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.01E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-5.9999999999999995E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.4100000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.14199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.1545</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-8.9200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.2999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.0900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.3600000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.1299999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.13780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-4.9200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.14610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-6.0400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-1.7399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-5.4000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.89E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-6.1899999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.14779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-4.1399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.47E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-6.9999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-4.4999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.1328</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.2600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.5699999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.8099999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-8.9499999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.15409999999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.13769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.2700000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-1.6000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9.98E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.1477</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.1648</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-8.7300000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.9E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.0200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.0100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.13239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-4.6899999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-4.1000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-4.0800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.13730000000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-5.4899999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-2.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-6.1199999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.13600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-3.4099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.5599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-1.6000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-4.87E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.12570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5.8799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6.8599999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-1.2999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-8.6099999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.1648</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.14180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.1007</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-8.9999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-1E-3</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.12189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.19059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.21279999999999999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-8.2100000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>5.3900000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8.2199999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7.8200000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.1212</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-4.36E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.8200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.4000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.1222</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-4.7199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-4.1000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-5.5300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.12239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-1.77E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.34E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-4.4000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-4.6399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.1167</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>8.43E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7.1800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4.7699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
                   <c:v>-2.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="143">
-                  <c:v>-8.1100000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.1968</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.17330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.1201</c:v>
+                <c:pt idx="27" formatCode="0.0000">
+                  <c:v>-1.5655502392344499E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,907 +1719,193 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>CI_Biases_EG_SDANDMEAN!$R$2:$R$148</c:f>
+                <c:f>CI_Biases_EG_SDANDMEAN!$R$2:$R$149</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="147"/>
+                  <c:ptCount val="28"/>
                   <c:pt idx="0">
                     <c:v>1.8000000000000004E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2000000000000084E-3</c:v>
+                    <c:v>3.0999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.1999999999999806E-3</c:v>
+                    <c:v>3.5000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.2000000000000084E-3</c:v>
+                    <c:v>4.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.0000000000000027E-3</c:v>
+                    <c:v>3.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.0999999999999999E-3</c:v>
+                    <c:v>3.3E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.599999999999999E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.7000000000000019E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.7000000000000019E-3</c:v>
+                    <c:v>3.4000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.3999999999999864E-3</c:v>
+                    <c:v>4.2000000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.599999999999999E-3</c:v>
+                    <c:v>4.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5000000000000001E-3</c:v>
+                    <c:v>3.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.1000000000000012E-3</c:v>
+                    <c:v>3.7000000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>1.9E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.0999999999999995E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.3E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
                     <c:v>4.1000000000000003E-3</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
                   <c:pt idx="20">
-                    <c:v>3.7000000000000019E-3</c:v>
+                    <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>3.4000000000000141E-3</c:v>
+                    <c:v>4.5000000000000005E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.9999999999999966E-3</c:v>
+                    <c:v>8.4000000000000012E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.9000000000000003E-3</c:v>
+                    <c:v>9.4999999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.4999999999999996E-3</c:v>
+                    <c:v>8.3000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.5999999999999999E-3</c:v>
+                    <c:v>8.3999999999999995E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.2000000000000015E-3</c:v>
+                    <c:v>6.1999999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.7999999999999969E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>3.600000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>3.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>3.5000000000000031E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>2.8000000000000108E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>3.1000000000000055E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3.4000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>4.0999999999999925E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>3.3999999999999864E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>4.2000000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>4.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>4.2000000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>3.2000000000000084E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>4.1000000000000064E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>4.1000000000000012E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>3.9999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>3.3999999999999864E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>3.899999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>3.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>2.7000000000000079E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>4.0000000000000036E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>3.7000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>2.9999999999999888E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>4.2000000000000093E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>3.3999999999999864E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>1.9E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>3.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>5.1999999999999963E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>5.0000000000000044E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>4.599999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>3.4000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>4.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>4.6999999999999958E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>5.5999999999999939E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>3.9999999999999897E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>4.5000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>5.000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>5.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>4.9999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>3.7000000000000088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>5.400000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>4.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>4.1999999999999954E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>5.499999999999991E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>4.7000000000000097E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>4.4999999999999971E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>4.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>3.1000000000000055E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>5.1999999999999824E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>4.1999999999999954E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>2.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>4.5000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>9.199999999999986E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>1.1899999999999994E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>1.2800000000000034E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>5.400000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>8.4000000000000012E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>9.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>9.7000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>1.0000000000000009E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>6.1999999999999972E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>7.8999999999999973E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>9.4999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>9.0000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>8.8000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>7.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>6.4000000000000029E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>8.100000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>9.7999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>8.3000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>7.6999999999999985E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>6.9999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>5.7999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>9.4999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>1.0099999999999998E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>7.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>8.3999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>7.0999999999999952E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>5.5000000000000049E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>9.8000000000000032E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>8.6999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>8.5999999999999965E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>6.1999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>1.3100000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>1.0800000000000004E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>7.1999999999999842E-3</c:v>
+                    <c:v>3.8378499236034771E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>CI_Biases_EG_SDANDMEAN!$N$2:$N$148</c:f>
+                <c:f>CI_Biases_EG_SDANDMEAN!$N$2:$N$149</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="147"/>
+                  <c:ptCount val="28"/>
                   <c:pt idx="0">
                     <c:v>1.9E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1999999999999945E-3</c:v>
+                    <c:v>3.1999999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.2999999999999974E-3</c:v>
+                    <c:v>3.6000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0999999999999917E-3</c:v>
+                    <c:v>3.9999999999999992E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.0000000000000027E-3</c:v>
+                    <c:v>3.5000000000000005E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>3.1999999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.699999999999995E-3</c:v>
+                    <c:v>2E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.7000000000000019E-3</c:v>
+                    <c:v>2.1000000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.7000000000000019E-3</c:v>
+                    <c:v>3.3E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.5000000000000031E-3</c:v>
+                    <c:v>4.2000000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.599999999999999E-3</c:v>
+                    <c:v>4.0000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.6000000000000003E-3</c:v>
+                    <c:v>3.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.1999999999999997E-3</c:v>
+                    <c:v>3.6999999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>2E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.0999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4.3999999999999994E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>4.5000000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.6999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.4000000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
                     <c:v>4.1000000000000003E-3</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>3.4999999999999996E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3.9999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>3.8000000000000013E-3</c:v>
-                  </c:pt>
                   <c:pt idx="20">
-                    <c:v>3.600000000000006E-3</c:v>
+                    <c:v>2.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>3.2999999999999974E-3</c:v>
+                    <c:v>4.4999999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>4.0000000000000036E-3</c:v>
+                    <c:v>8.3000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>3.9000000000000003E-3</c:v>
+                    <c:v>9.4999999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.4999999999999996E-3</c:v>
+                    <c:v>8.3000000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.5000000000000005E-3</c:v>
+                    <c:v>8.3000000000000018E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.1999999999999945E-3</c:v>
+                    <c:v>6.1000000000000004E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>2.7999999999999969E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2.9999999999999957E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>3.4999999999999962E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3.599999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>3.1999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>2.9999999999999888E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>3.5999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>3.4000000000000141E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>2.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3.7000000000000088E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>3.6000000000000199E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>3.6999999999999811E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>3.0999999999999917E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3.3E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>3.8999999999999937E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>4.1000000000000064E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>3.4000000000000141E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>4.2000000000000006E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>4.1999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>3.2000000000000084E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>4.1999999999999989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>3.8000000000000048E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>4.0999999999999995E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>4.0000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>3.9000000000000007E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="62">
-                    <c:v>3.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="63">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="64">
-                    <c:v>2.5999999999999912E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="65">
-                    <c:v>3.7000000000000019E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="66">
-                    <c:v>4.0999999999999925E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="67">
-                    <c:v>3.7999999999999978E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="68">
-                    <c:v>3.6999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="69">
-                    <c:v>3.1000000000000055E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="70">
-                    <c:v>4.2000000000000093E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="71">
-                    <c:v>3.4000000000000141E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="72">
-                    <c:v>3.4000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="73">
-                    <c:v>2E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="74">
-                    <c:v>3.0999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="75">
-                    <c:v>5.1999999999999963E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>5.0000000000000044E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="77">
-                    <c:v>4.7000000000000097E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="78">
-                    <c:v>3.2999999999999974E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="79">
-                    <c:v>4.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="80">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="81">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="82">
-                    <c:v>5.6000000000000077E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="83">
-                    <c:v>3.9000000000000146E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="84">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="85">
-                    <c:v>4.5000000000000005E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="86">
-                    <c:v>4.8999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="87">
-                    <c:v>5.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="88">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="89">
-                    <c:v>3.6000000000000199E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="90">
-                    <c:v>4.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="91">
-                    <c:v>4.9999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="92">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="93">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="94">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="95">
-                    <c:v>3.6999999999999811E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="96">
-                    <c:v>4.6999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="97">
-                    <c:v>5.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="98">
-                    <c:v>4.3999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="99">
-                    <c:v>4.4000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="100">
-                    <c:v>4.2000000000000023E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="101">
-                    <c:v>3.0000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="102">
-                    <c:v>5.5000000000000049E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="103">
-                    <c:v>4.6999999999999958E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="104">
-                    <c:v>4.4000000000000011E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="105">
-                    <c:v>4.1000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="106">
-                    <c:v>2.9999999999999888E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="107">
-                    <c:v>5.2000000000000102E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="108">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="109">
-                    <c:v>4.2999999999999983E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="110">
-                    <c:v>2.5999999999999999E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="111">
-                    <c:v>4.4999999999999997E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="112">
-                    <c:v>9.2000000000000137E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="113">
-                    <c:v>1.1800000000000005E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="114">
-                    <c:v>1.2899999999999995E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="115">
-                    <c:v>5.400000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="116">
-                    <c:v>8.3000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="117">
-                    <c:v>9.3000000000000027E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="118">
-                    <c:v>9.7000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="119">
-                    <c:v>9.8999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="120">
-                    <c:v>6.1000000000000082E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="121">
-                    <c:v>8.0000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="122">
-                    <c:v>9.4999999999999998E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="123">
-                    <c:v>8.9999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>8.6999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="125">
-                    <c:v>7.0999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="126">
-                    <c:v>6.399999999999989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="127">
-                    <c:v>8.0000000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="128">
-                    <c:v>9.7000000000000003E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="129">
-                    <c:v>8.3000000000000001E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="130">
-                    <c:v>7.8000000000000014E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="131">
-                    <c:v>6.9999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="132">
-                    <c:v>5.6999999999999967E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="133">
-                    <c:v>9.5999999999999992E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="134">
-                    <c:v>0.01</c:v>
-                  </c:pt>
-                  <c:pt idx="135">
-                    <c:v>7.1999999999999989E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="136">
-                    <c:v>8.3000000000000018E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="137">
-                    <c:v>6.9999999999999993E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="138">
-                    <c:v>5.400000000000002E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="139">
-                    <c:v>9.8999999999999921E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="140">
-                    <c:v>8.6000000000000104E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="141">
-                    <c:v>8.6999999999999994E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="142">
-                    <c:v>6.1000000000000004E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="143">
-                    <c:v>4.7999999999999987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="144">
-                    <c:v>1.3100000000000001E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="145">
-                    <c:v>1.0699999999999987E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="146">
-                    <c:v>7.1000000000000091E-3</c:v>
+                    <c:v>3.8378499236034727E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -4399,452 +1914,275 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>CI_Biases_EG_SDANDMEAN!$T$2:$U$149</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="28"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.65</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CI_Biases_EG_SDANDMEAN!$P$2:$P$148</c:f>
+              <c:f>CI_Biases_EG_SDANDMEAN!$P$2:$P$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0899999999999995E-2</c:v>
+                  <c:v>8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13350000000000001</c:v>
+                  <c:v>-3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>-6.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.8700000000000001E-2</c:v>
+                  <c:v>-1.9E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0000000000000004E-4</c:v>
+                  <c:v>3.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7899999999999998E-2</c:v>
+                  <c:v>-8.9999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.08E-2</c:v>
+                  <c:v>1.1000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.36E-2</c:v>
+                  <c:v>8.9999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.13719999999999999</c:v>
+                  <c:v>-3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.9599999999999998E-2</c:v>
+                  <c:v>-5.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>-3.5000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.18E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.1000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.14499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6.1699999999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.7899999999999999E-2</c:v>
+                  <c:v>-3.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.7000000000000002E-3</c:v>
+                  <c:v>-2E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.9699999999999999E-2</c:v>
+                  <c:v>-8.9999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.4899999999999999E-2</c:v>
+                  <c:v>-1.1999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.14610000000000001</c:v>
+                  <c:v>-8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4.4299999999999999E-2</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>-1E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>-2.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.32E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.9E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-4.5900000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.1323</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.4499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.6300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-9.0300000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.13200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.0899999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-8.9999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.6100000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.14280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.15479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-8.7400000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.9999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.1499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.7900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.13189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-4.58E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-3.2000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-3.61E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.13730000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-5.6800000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-1.7100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-5.7000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.6799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-5.7099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.1361</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-3.1699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.52E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-1E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-4.4499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.12640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.8200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.9099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-8.7499999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.1527</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.13900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.5899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-1.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.4E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.1047</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.15620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.1769</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-8.6599999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.1900000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.6200000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7.6200000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.1268</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-4.4499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-3.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.38E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-2.5100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.12859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-4.9099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-1.5299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-3.3999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-1.3899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-5.5399999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.12470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-2.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.04E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.78E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-2E-3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-4.5699999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.2900000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>7.4899999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.87E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-8.9999999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.17180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.1515</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.1051</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-1.1999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-8.0000000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.12590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.21210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.25469999999999998</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-8.3400000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>5.67E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8.7400000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>9.6199999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.1198</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-4.1099999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-1E-4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.44E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.01E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-1.44E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.1202</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-4.36E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-1.21E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-3.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-2.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-5.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.1169</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-8.3999999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.8200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-4.4499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.1158</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.1017</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7.9100000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>4.9200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-8.0299999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.2356</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.1946</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.1237</c:v>
+                <c:pt idx="27" formatCode="0.0000">
+                  <c:v>-2.33492822966507E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,9 +2212,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4895,7 +2234,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4921,6 +2260,7 @@
         <c:axId val="1779249584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-2.5000000000000005E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4938,6 +2278,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Bias (Accurracy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" baseline="0"/>
+                  <a:t> Men - Accuracy Women)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4954,7 +2354,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5022,6 +2422,7 @@
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -5574,48 +2975,453 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34017</xdr:rowOff>
+      <xdr:rowOff>123724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>177813</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172066</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Gruppieren 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1382E0-0D57-4BAC-A35A-434128F8FCE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C74C7B7-BAAE-4735-AEE4-7C3F9BABE94F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2703873" y="1205272"/>
+          <a:ext cx="12568903" cy="8971115"/>
+          <a:chOff x="2703873" y="1205272"/>
+          <a:chExt cx="12568903" cy="8971115"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Gruppieren 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900AC3A7-ABED-490D-A590-ED14C469ED5C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2703873" y="1205272"/>
+            <a:ext cx="12568903" cy="8971115"/>
+            <a:chOff x="2703872" y="1205272"/>
+            <a:chExt cx="10689900" cy="10158578"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1382E0-0D57-4BAC-A35A-434128F8FCE8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="2703872" y="1230273"/>
+            <a:ext cx="10689900" cy="10044050"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Textfeld 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14C2CE2-0BB9-4163-9B6D-55338E153D84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000">
+              <a:off x="2678545" y="10643293"/>
+              <a:ext cx="1113372" cy="327742"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Ratio Men</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="Textfeld 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4442B9-5FAC-4705-8161-AF4F6B894152}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3147143" y="1205272"/>
+              <a:ext cx="1113502" cy="327742"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Probability</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="Gerade Verbindung mit Pfeil 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B62337-59D3-4239-9F0A-7A7ACC93534B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13175228" y="4834191"/>
+            <a:ext cx="508000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400" cap="sq">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B0FDCD-7AAA-4430-8913-5D058050D47E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13180145" y="5265171"/>
+            <a:ext cx="508000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400" cap="sq">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6799691A-75A6-40C1-8858-5EFDA6046A6E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13176868" y="5794474"/>
+            <a:ext cx="508000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400" cap="sq">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87223</cdr:x>
+      <cdr:y>0.38818</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99935</cdr:x>
+      <cdr:y>0.60109</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE14781-11D6-43AA-B75F-B7CFB4A76A52}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10962968" y="3898888"/>
+          <a:ext cx="1597740" cy="2138515"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>With Sex</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Without Sex</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Without</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> any Sex-related Variables</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:Z148" totalsRowShown="0">
-  <autoFilter ref="A1:Z148" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:Z149" totalsRowShown="0">
+  <autoFilter ref="A1:Z149" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:Z148">
     <sortCondition ref="A1:A148"/>
   </sortState>
@@ -5960,35 +3766,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.33203125" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="18" width="25.140625" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="18" width="25.109375" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="23" max="23" width="17.109375" customWidth="1"/>
+    <col min="25" max="25" width="13.109375" customWidth="1"/>
+    <col min="26" max="26" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6068,7 +3875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6154,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6240,7 +4047,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6326,7 +4133,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6412,7 +4219,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6498,7 +4305,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6584,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6670,7 +4477,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6756,7 +4563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6842,7 +4649,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6928,7 +4735,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7014,7 +4821,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7100,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7186,7 +4993,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7272,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7358,7 +5165,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7444,7 +5251,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7530,7 +5337,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7616,7 +5423,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7702,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7788,7 +5595,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7874,7 +5681,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7960,7 +5767,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8046,7 +5853,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8132,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8218,7 +6025,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8304,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8390,7 +6197,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8476,7 +6283,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8562,7 +6369,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8648,7 +6455,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8734,7 +6541,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8820,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8906,7 +6713,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8992,7 +6799,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9078,7 +6885,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9164,7 +6971,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9250,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9336,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9422,7 +7229,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9508,7 +7315,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9594,7 +7401,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9680,7 +7487,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9766,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9852,7 +7659,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9938,7 +7745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10024,7 +7831,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10110,7 +7917,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10196,7 +8003,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10282,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10368,7 +8175,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10454,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10540,7 +8347,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10626,7 +8433,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10712,7 +8519,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10798,7 +8605,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10884,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10970,7 +8777,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11056,7 +8863,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11142,7 +8949,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11228,7 +9035,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11314,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11400,7 +9207,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11486,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11572,7 +9379,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11658,7 +9465,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11744,7 +9551,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11830,7 +9637,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11916,7 +9723,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12002,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12088,7 +9895,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12174,7 +9981,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12260,7 +10067,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12346,7 +10153,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12432,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12518,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12604,7 +10411,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12690,7 +10497,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12776,7 +10583,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12862,7 +10669,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12948,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13034,7 +10841,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13120,7 +10927,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13206,7 +11013,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13292,7 +11099,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13378,7 +11185,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13464,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13550,7 +11357,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13636,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13722,7 +11529,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13808,7 +11615,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13894,7 +11701,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13980,7 +11787,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14066,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14152,7 +11959,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14238,7 +12045,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14324,7 +12131,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14410,7 +12217,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14496,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14582,7 +12389,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14668,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14754,7 +12561,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14840,7 +12647,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14926,7 +12733,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15012,7 +12819,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15098,7 +12905,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15184,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15270,7 +13077,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15356,7 +13163,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15442,7 +13249,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15528,7 +13335,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15614,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15700,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15786,7 +13593,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15872,7 +13679,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15958,7 +13765,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16044,7 +13851,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16130,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16216,7 +14023,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16302,7 +14109,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16388,7 +14195,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16474,7 +14281,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16560,7 +14367,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16646,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16732,7 +14539,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16818,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -16904,7 +14711,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -16990,7 +14797,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -17076,7 +14883,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17162,7 +14969,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17248,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17334,7 +15141,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17420,7 +15227,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -17506,7 +15313,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -17592,7 +15399,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -17678,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -17764,7 +15571,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -17850,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -17936,7 +15743,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18022,7 +15829,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18108,7 +15915,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18194,7 +16001,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18280,7 +16087,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18366,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18452,7 +16259,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18538,7 +16345,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18624,7 +16431,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18710,8 +16517,154 @@
         <v>0.15</v>
       </c>
     </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <f>Tabelle1[[#This Row],[Mean Bias]]-Tabelle1[[#This Row],[Lower Bound Bias]]</f>
+        <v>3.8886476583801636E-3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>-4.7001309119686797E-3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>-8.1148325358851596E-4</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3.0771644047916501E-3</v>
+      </c>
+      <c r="F149" s="1">
+        <f>Tabelle1[[#This Row],[Upper Bound Bias]]-Tabelle1[[#This Row],[Mean Bias]]</f>
+        <v>3.8886476583801662E-3</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1.07804045490061E-3</v>
+      </c>
+      <c r="H149" s="1">
+        <f>Tabelle1[[#This Row],[Mean NO SEX]]-Tabelle1[[#This Row],[Lower Bound NO SEX]]</f>
+        <v>3.8890790795259806E-3</v>
+      </c>
+      <c r="I149" s="1">
+        <v>-5.4546293187604303E-3</v>
+      </c>
+      <c r="J149" s="1">
+        <v>-1.5655502392344499E-3</v>
+      </c>
+      <c r="K149" s="1">
+        <v>2.32352884029153E-3</v>
+      </c>
+      <c r="L149" s="1">
+        <f>Tabelle1[[#This Row],[Upper Bound NO SEX]]-Tabelle1[[#This Row],[Mean NO SEX]]</f>
+        <v>3.8890790795259797E-3</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1.0781600567491599E-3</v>
+      </c>
+      <c r="N149" s="1">
+        <f>Tabelle1[[#This Row],[Mean NO SEX INF]]-Tabelle1[[#This Row],[Lower Bound NO SEX INF]]</f>
+        <v>3.8378499236034727E-3</v>
+      </c>
+      <c r="O149" s="1">
+        <v>-4.0713427465699798E-3</v>
+      </c>
+      <c r="P149" s="1">
+        <v>-2.33492822966507E-4</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>3.60435710063697E-3</v>
+      </c>
+      <c r="R149" s="1">
+        <f>Tabelle1[[#This Row],[Upper Bound NO SEX INF]]-Tabelle1[[#This Row],[Mean NO SEX INF]]</f>
+        <v>3.8378499236034771E-3</v>
+      </c>
+      <c r="S149" s="1">
+        <v>1.0639579208380099E-3</v>
+      </c>
+      <c r="T149">
+        <v>0.95</v>
+      </c>
+      <c r="U149">
+        <v>0.95</v>
+      </c>
+      <c r="V149">
+        <v>0.95</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0.45</v>
+      </c>
+      <c r="Y149">
+        <v>0.45</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:S1048576">
+  <conditionalFormatting sqref="C152:S1048576 C1:S148 C149:E149">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151:S151 C149:C150">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F150:V150">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E149">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:K149">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:Q149">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -18735,11 +16688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CE69DD-281A-4DD7-B998-6DF9A99A26FC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CI_Biases_EG_SDANDMEAN.xlsx
+++ b/CI_Biases_EG_SDANDMEAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BIASpects-bias-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA97A2A-0351-44EA-947C-D8A17DA523BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687570E-8AC2-47D5-B2BE-2CFF9110289A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,174 +933,174 @@
                 <c:ptCount val="28"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1427,174 +1427,174 @@
                 <c:ptCount val="28"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1921,174 +1921,174 @@
                 <c:ptCount val="28"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.05</c:v>
+                    <c:v>0,05</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>0.2</c:v>
+                    <c:v>0,2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>0.35</c:v>
+                    <c:v>0,35</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0.5</c:v>
+                    <c:v>0,5</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.65</c:v>
+                    <c:v>0,65</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.8</c:v>
+                    <c:v>0,8</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.95</c:v>
+                    <c:v>0,95</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2988,10 +2988,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Gruppieren 11">
+        <xdr:cNvPr id="7" name="Gruppieren 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C74C7B7-BAAE-4735-AEE4-7C3F9BABE94F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B679B08B-8D91-4916-A160-E5819A2F29A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16689,7 +16689,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
